--- a/Documentation/Zabbix calculations for MS SQL template.xlsx
+++ b/Documentation/Zabbix calculations for MS SQL template.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\Zabbix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\src\dotup-zabbix-template-mssql-backup\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414E692-7A6A-4243-8C1A-FC40CC3C3078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655" tabRatio="439"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NVS" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +171,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -198,43 +207,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C8" totalsRowShown="0">
-  <autoFilter ref="A3:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:C8" totalsRowShown="0">
+  <autoFilter ref="A3:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Object"/>
-    <tableColumn id="2" name="Count"/>
-    <tableColumn id="3" name="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A10:C14" totalsRowShown="0">
-  <autoFilter ref="A10:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A10:C14" totalsRowShown="0">
+  <autoFilter ref="A10:C14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Object"/>
-    <tableColumn id="2" name="Value"/>
-    <tableColumn id="3" name="Unit"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A16:C20" totalsRowShown="0">
-  <autoFilter ref="A16:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A16:C20" totalsRowShown="0">
+  <autoFilter ref="A16:C20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Object" dataDxfId="0"/>
-    <tableColumn id="2" name="Count"/>
-    <tableColumn id="3" name="Unit"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Object" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,28 +538,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.640625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -561,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -581,7 +592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,7 +604,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -605,7 +616,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -614,7 +625,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -625,40 +636,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <f>60*60</f>
+        <v>3600</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="7">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -669,10 +681,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -683,49 +695,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="8">
         <f>SUM(C8/B11)</f>
-        <v>60.666666666666664</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4">
         <f>SUM(B12*24*3600)*B17</f>
-        <v>471744000</v>
+        <v>2620800</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
         <f>SUM(B14*B18/1024/1024/1024)</f>
-        <v>39.541125297546387</v>
+        <v>0.21967291831970215</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B13*(C8/3600)*24*3600*B14)/1024/1024/1024</f>
-        <v>1.3363435864448545</v>
+        <v>0.32950937747955322</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
